--- a/new_classification_db/N4 - STATEMENTS OF PAYMENT.xlsx
+++ b/new_classification_db/N4 - STATEMENTS OF PAYMENT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="32">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">MANDAMIENTO DE DEVOLUCIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COPIA DE TRANSFERENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">N4 - PAYMENT FILE</t>
@@ -244,10 +241,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z35"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,50 +541,51 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
+      <c r="A23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>22</v>
@@ -598,7 +596,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>23</v>
@@ -608,19 +606,17 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
@@ -629,60 +625,52 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="0" t="s">
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
